--- a/Artefatos/SSAM_GER_ProductBacklog.xlsx
+++ b/Artefatos/SSAM_GER_ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="17520" windowHeight="6855"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>SSAM - Product Backlog v 0.0</t>
+  </si>
+  <si>
+    <t>1ª Interação</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +151,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,20 +266,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -277,23 +311,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +700,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -607,380 +710,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>4</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6</v>
+      </c>
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="12">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G16" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H16" s="8">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="32">
         <v>4</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A13" s="10">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A16" s="10">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="34">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+    <row r="18" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="36">
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
